--- a/SourceCode/2024/Jan2024/Gayathri/Task21/Temperature.xlsx
+++ b/SourceCode/2024/Jan2024/Gayathri/Task21/Temperature.xlsx
@@ -37,13 +37,13 @@
     <x:t>Hyderabad temp</x:t>
   </x:si>
   <x:si>
-    <x:t>21</x:t>
+    <x:t>22</x:t>
   </x:si>
   <x:si>
     <x:t>Mumbai temp</x:t>
   </x:si>
   <x:si>
-    <x:t>23</x:t>
+    <x:t>24</x:t>
   </x:si>
   <x:si>
     <x:t>Chennai temp</x:t>
@@ -52,13 +52,13 @@
     <x:t>Bhopal temp</x:t>
   </x:si>
   <x:si>
-    <x:t>14</x:t>
+    <x:t>15</x:t>
   </x:si>
   <x:si>
     <x:t>Delhi temp</x:t>
   </x:si>
   <x:si>
-    <x:t>7</x:t>
+    <x:t>8</x:t>
   </x:si>
 </x:sst>
 </file>
